--- a/code/experiments/experiment_1_univariate_final.xlsx
+++ b/code/experiments/experiment_1_univariate_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hons-Project\code\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4A803108-0DF5-4976-857D-DC143F05F816}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5066F-63D9-40A5-91FA-288FDA0EE06B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="174">
   <si>
     <t>Company</t>
   </si>
@@ -554,7 +554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1032,7 +1032,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
@@ -1042,9 +1042,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1091,7 +1088,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="30">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1165,21 +1162,6 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1197,378 +1179,6 @@
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1583,7 +1193,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Chen Zhan Chen" refreshedDate="43548.51622164352" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="764">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chen Zhan Chen" refreshedDate="43548.51622164352" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="764" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:CZ1048576" sheet="experiment_1_univariate_laptop_"/>
   </cacheSource>
@@ -82964,11 +82574,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C305" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C56" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="104">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="7">
         <item x="0"/>
         <item x="1"/>
@@ -82983,8 +82593,8 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item t="default"/>
       </items>
@@ -83155,913 +82765,165 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="8"/>
-    <field x="1"/>
   </rowFields>
-  <rowItems count="302">
+  <rowItems count="53">
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
     <i>
       <x v="48"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i>
       <x v="23"/>
     </i>
-    <i r="1">
-      <x/>
+    <i>
+      <x v="31"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i>
+      <x v="7"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
       <x v="3"/>
     </i>
-    <i r="1">
-      <x v="4"/>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
+    <i>
+      <x v="12"/>
     </i>
     <i>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
+      <x v="35"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="29"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
       <x v="39"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
       <x v="4"/>
     </i>
     <i>
       <x v="51"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
       <x v="15"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i>
       <x v="17"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
+      <x v="28"/>
     </i>
     <i>
       <x v="21"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
       <x v="19"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -84086,19 +82948,19 @@
     <dataField name="Average of APRE_t+1" fld="15" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="151">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="27">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -84108,7 +82970,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -84424,16 +83286,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C305"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -84443,7 +83305,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -84459,3324 +83321,585 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3">
-        <v>0.57825839499146237</v>
+        <v>0.58167330677290796</v>
       </c>
       <c r="C4" s="3">
-        <v>1.6050818821128725E-2</v>
+        <v>1.6083945703523134E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>165</v>
+      <c r="A5" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B5" s="3">
-        <v>0.579681274900398</v>
+        <v>0.57901726427622802</v>
       </c>
       <c r="C5" s="3">
-        <v>1.6097853529229999E-2</v>
+        <v>1.6050454369887619E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>148</v>
+      <c r="A6" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B6" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.57835325365205803</v>
       </c>
       <c r="C6" s="3">
-        <v>1.6086316117409499E-2</v>
+        <v>1.60729009982809E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>163</v>
+      <c r="A7" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B7" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.57835325365205803</v>
       </c>
       <c r="C7" s="3">
-        <v>1.6083232605264647E-2</v>
+        <v>1.6077082733311401E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>161</v>
+      <c r="A8" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="B8" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.57768924302788816</v>
       </c>
       <c r="C8" s="3">
-        <v>1.5953621680751151E-2</v>
+        <v>1.6056665582080364E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3">
-        <v>0.57724656927844131</v>
+        <v>0.57768924302788804</v>
       </c>
       <c r="C9" s="3">
-        <v>1.6038822782249867E-2</v>
+        <v>1.6052093357466601E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>165</v>
+      <c r="A10" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B10" s="3">
-        <v>0.57569721115537797</v>
+        <v>0.57768924302788804</v>
       </c>
       <c r="C10" s="3">
-        <v>1.6017281055100051E-2</v>
+        <v>1.6055788769533501E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>105</v>
+      <c r="A11" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B11" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.57702523240371806</v>
       </c>
       <c r="C11" s="3">
-        <v>1.6031507959347699E-2</v>
+        <v>1.6026166030098651E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>148</v>
+      <c r="A12" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B12" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.57503320053120799</v>
       </c>
       <c r="C12" s="3">
-        <v>1.6022529678181598E-2</v>
+        <v>1.6059628089644101E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>163</v>
+      <c r="A13" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B13" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.57104913678618818</v>
       </c>
       <c r="C13" s="3">
-        <v>1.6049780516238649E-2</v>
+        <v>1.6089822413688899E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>161</v>
+      <c r="A14" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B14" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.57104913678618818</v>
       </c>
       <c r="C14" s="3">
-        <v>1.6064868150347203E-2</v>
+        <v>1.6046185188514316E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B15" s="3">
-        <v>0.57689243027888393</v>
+        <v>0.56972111553784821</v>
       </c>
       <c r="C15" s="3">
-        <v>1.6084538985656347E-2</v>
+        <v>1.6077530112741902E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>165</v>
+      <c r="A16" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B16" s="3">
-        <v>0.57768924302788793</v>
+        <v>0.56972111553784799</v>
       </c>
       <c r="C16" s="3">
-        <v>1.6086631167665247E-2</v>
+        <v>1.6062274552275897E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>105</v>
+      <c r="A17" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B17" s="3">
-        <v>0.56706507304116804</v>
+        <v>0.56839309428950824</v>
       </c>
       <c r="C17" s="3">
-        <v>1.6075176027170235E-2</v>
+        <v>1.6066110683950051E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>148</v>
+      <c r="A18" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B18" s="3">
-        <v>0.58964143426294802</v>
+        <v>0.56772908366533825</v>
       </c>
       <c r="C18" s="3">
-        <v>1.6097080336071899E-2</v>
+        <v>1.6149524912949933E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>163</v>
+      <c r="A19" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B19" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.56640106241699817</v>
       </c>
       <c r="C19" s="3">
-        <v>1.6087826607212197E-2</v>
+        <v>1.6060372399756082E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>161</v>
+      <c r="A20" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="B20" s="3">
-        <v>0.58366533864541759</v>
+        <v>0.56374501992031834</v>
       </c>
       <c r="C20" s="3">
-        <v>1.6086932944613001E-2</v>
+        <v>1.6075097207571065E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B21" s="3">
-        <v>0.57459052678176137</v>
+        <v>0.56175298804780827</v>
       </c>
       <c r="C21" s="3">
-        <v>1.6075978539640358E-2</v>
+        <v>1.6054240952822599E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>165</v>
+      <c r="A22" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B22" s="3">
-        <v>0.57569721115537797</v>
+        <v>0.56042496679946829</v>
       </c>
       <c r="C22" s="3">
-        <v>1.6085043262095401E-2</v>
+        <v>1.6073360978973616E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>105</v>
+      <c r="A23" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="B23" s="3">
-        <v>0.55378486055776843</v>
+        <v>0.55909694555112832</v>
       </c>
       <c r="C23" s="3">
-        <v>1.6064061401787351E-2</v>
+        <v>1.6149593817765682E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>148</v>
+      <c r="A24" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B24" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.55444887118193853</v>
       </c>
       <c r="C24" s="3">
-        <v>1.6083995279795E-2</v>
+        <v>1.6092250557840884E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>163</v>
+      <c r="A25" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B25" s="3">
-        <v>0.579681274900398</v>
+        <v>0.55378486055776854</v>
       </c>
       <c r="C25" s="3">
-        <v>1.6082561945008803E-2</v>
+        <v>1.6091645197443317E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>161</v>
+      <c r="A26" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B26" s="3">
-        <v>0.58764940239043795</v>
+        <v>0.55312084993359845</v>
       </c>
       <c r="C26" s="3">
-        <v>1.6068239179592547E-2</v>
+        <v>1.6080705824728616E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B27" s="3">
-        <v>0.57427433124644245</v>
+        <v>0.55312084993359834</v>
       </c>
       <c r="C27" s="3">
-        <v>1.6084008978776702E-2</v>
+        <v>1.6052991446534898E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>165</v>
+      <c r="A28" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B28" s="3">
-        <v>0.57768924302788793</v>
+        <v>0.55245683930942846</v>
       </c>
       <c r="C28" s="3">
-        <v>1.6054095860033701E-2</v>
+        <v>1.6067260103124998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>148</v>
+      <c r="A29" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B29" s="3">
-        <v>0.58964143426294802</v>
+        <v>0.55179282868525847</v>
       </c>
       <c r="C29" s="3">
-        <v>1.6088334113521501E-2</v>
+        <v>1.6132090965948233E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>163</v>
+      <c r="A30" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B30" s="3">
-        <v>0.55976095617529853</v>
+        <v>0.55112881806108849</v>
       </c>
       <c r="C30" s="3">
-        <v>1.6103177472067801E-2</v>
+        <v>1.6069586110237219E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>161</v>
+      <c r="A31" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B31" s="3">
-        <v>0.57768924302788804</v>
+        <v>0.55112881806108849</v>
       </c>
       <c r="C31" s="3">
-        <v>1.6092591036856202E-2</v>
+        <v>1.6069016108110467E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B32" s="3">
-        <v>0.57370517928286813</v>
+        <v>0.54913678618857842</v>
       </c>
       <c r="C32" s="3">
-        <v>1.608109944232286E-2</v>
+        <v>1.6082994772950769E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>165</v>
+      <c r="A33" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B33" s="3">
-        <v>0.579681274900398</v>
+        <v>0.54847277556440854</v>
       </c>
       <c r="C33" s="3">
-        <v>1.6076406640828697E-2</v>
+        <v>1.6091024558648335E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>105</v>
+      <c r="A34" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B34" s="3">
-        <v>0.58565737051792799</v>
+        <v>0.54847277556440854</v>
       </c>
       <c r="C34" s="3">
-        <v>1.6077677761995531E-2</v>
+        <v>1.6079164914033533E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>148</v>
+      <c r="A35" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B35" s="3">
-        <v>0.56175298804780804</v>
+        <v>0.54780876494023845</v>
       </c>
       <c r="C35" s="3">
-        <v>1.60795630910598E-2</v>
+        <v>1.6075812810419983E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>163</v>
+      <c r="A36" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B36" s="3">
-        <v>0.57569721115537797</v>
+        <v>0.54714475431606868</v>
       </c>
       <c r="C36" s="3">
-        <v>1.6078092936054701E-2</v>
+        <v>1.6076036271713379E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>161</v>
+      <c r="A37" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B37" s="3">
-        <v>0.55378486055776854</v>
+        <v>0.54648074369189859</v>
       </c>
       <c r="C37" s="3">
-        <v>1.60946994462077E-2</v>
+        <v>1.607825557095725E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="3">
-        <v>0.5732625055334214</v>
+        <v>0.53917662682602852</v>
       </c>
       <c r="C38" s="3">
-        <v>1.6080346830597576E-2</v>
+        <v>1.6097748244044797E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>165</v>
+      <c r="A39" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B39" s="3">
-        <v>0.58167330677290807</v>
+        <v>0.53718459495351889</v>
       </c>
       <c r="C39" s="3">
-        <v>1.607079862470925E-2</v>
+        <v>1.6093750749339115E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>105</v>
+      <c r="A40" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B40" s="3">
-        <v>0.57171314741035806</v>
+        <v>0.53519256308100882</v>
       </c>
       <c r="C40" s="3">
-        <v>1.60860065791507E-2</v>
+        <v>1.610013902992723E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>148</v>
+      <c r="A41" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="B41" s="3">
-        <v>0.56175298804780804</v>
+        <v>0.53386454183266874</v>
       </c>
       <c r="C41" s="3">
-        <v>1.6100520062194E-2</v>
+        <v>1.6077066145380601E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>163</v>
+      <c r="A42" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B42" s="3">
-        <v>0.57569721115537797</v>
+        <v>0.526560424966799</v>
       </c>
       <c r="C42" s="3">
-        <v>1.6086562182683749E-2</v>
+        <v>1.6063609510462384E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>161</v>
+      <c r="A43" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="B43" s="3">
-        <v>0.5697211155378481</v>
+        <v>0.52390438247011895</v>
       </c>
       <c r="C43" s="3">
-        <v>1.60679333200484E-2</v>
+        <v>1.6121698854094719E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3">
-        <v>0.57237715803452816</v>
+        <v>0.52058432934926901</v>
       </c>
       <c r="C44" s="3">
-        <v>1.6063836054780661E-2</v>
+        <v>1.6098886066829916E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>165</v>
+      <c r="A45" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B45" s="3">
-        <v>0.55776892430278857</v>
+        <v>0.51859229747675906</v>
       </c>
       <c r="C45" s="3">
-        <v>1.6085440599721348E-2</v>
+        <v>1.6182328875690682E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>105</v>
+      <c r="A46" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B46" s="3">
-        <v>0.56972111553784799</v>
+        <v>0.5172642762284192</v>
       </c>
       <c r="C46" s="3">
-        <v>1.6079679883352502E-2</v>
+        <v>1.6083207288443181E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>148</v>
+      <c r="A47" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B47" s="3">
-        <v>0.58964143426294802</v>
+        <v>0.51726427622841908</v>
       </c>
       <c r="C47" s="3">
-        <v>1.6062104552799199E-2</v>
+        <v>1.6180933036482183E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>163</v>
+      <c r="A48" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B48" s="3">
-        <v>0.58565737051792799</v>
+        <v>0.51726427622841908</v>
       </c>
       <c r="C48" s="3">
-        <v>1.6048452933403998E-2</v>
+        <v>1.6132043151021052E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>161</v>
+      <c r="A49" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B49" s="3">
-        <v>0.56772908366533792</v>
+        <v>0.51527224435590913</v>
       </c>
       <c r="C49" s="3">
-        <v>1.6042636553635498E-2</v>
+        <v>1.6079614640092749E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B50" s="3">
-        <v>0.57149181053563469</v>
+        <v>0.51328021248339939</v>
       </c>
       <c r="C50" s="3">
-        <v>1.6059494255294213E-2</v>
+        <v>1.6121397248740069E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>165</v>
+      <c r="A51" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B51" s="3">
-        <v>0.57171314741035806</v>
+        <v>0.51062416998671933</v>
       </c>
       <c r="C51" s="3">
-        <v>1.6061984329141649E-2</v>
+        <v>1.61630222859553E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>105</v>
+      <c r="A52" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B52" s="3">
-        <v>0.56175298804780804</v>
+        <v>0.50132802124833953</v>
       </c>
       <c r="C52" s="3">
-        <v>1.6046163645113298E-2</v>
+        <v>1.614502853068377E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>148</v>
+      <c r="A53" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B53" s="3">
-        <v>0.56972111553784799</v>
+        <v>0.49999999999999933</v>
       </c>
       <c r="C53" s="3">
-        <v>1.6090529679619301E-2</v>
+        <v>1.6148019935257215E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>163</v>
+      <c r="A54" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B54" s="3">
-        <v>0.57569721115537797</v>
+        <v>0.49933598937582963</v>
       </c>
       <c r="C54" s="3">
-        <v>1.6084636494831901E-2</v>
+        <v>1.6194862890740031E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>161</v>
+      <c r="A55" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B55" s="3">
-        <v>0.57768924302788793</v>
+        <v>0.44621513944223051</v>
       </c>
       <c r="C55" s="3">
-        <v>1.6029674839927448E-2</v>
+        <v>1.6130176875017301E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B56" s="3">
-        <v>0.56839309428950824</v>
+        <v>0.54640412708141839</v>
       </c>
       <c r="C56" s="3">
-        <v>1.6063482102665481E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" s="3">
-        <v>0.579681274900398</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1.6058502494176199E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="3">
-        <v>0.53386454183266896</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1.6074842943341151E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1.6086748524521199E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1.6083038642790249E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1.6025911119426452E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0.56839309428950802</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1.6077458352791601E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1.6023623035351299E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1.6152916472085249E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0.53386454183266896</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1.61839751435655E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0.56573705179282796</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1.60485512622301E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1.6031484246112799E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="3">
-        <v>0.56662239929172142</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1.6085908173557699E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="3">
-        <v>0.57171314741035806</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1.608813941256795E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0.55976095617529809</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1.6111674388369999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="3">
-        <v>0.55378486055776799</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1.6091774220991499E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0.56573705179282796</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1.6090987268969847E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="3">
-        <v>0.57569721115537797</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1.60498986006061E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0.56617972554227491</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1.6073183347340259E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0.55976095617529853</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1.60681789453644E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0.58565737051792799</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1.6006699320727902E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="3">
-        <v>0.59362549800796804</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1.60550620079793E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0.57171314741035806</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1.6078284026714899E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="3">
-        <v>0.53386454183266907</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1.6148631766234302E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="3">
-        <v>0.56529437804338167</v>
-      </c>
-      <c r="C80" s="3">
-        <v>1.6072530718163398E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="3">
-        <v>0.54581673306772904</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1.6083487952015502E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1.6081212367134952E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B83" s="3">
-        <v>0.58167330677290796</v>
-      </c>
-      <c r="C83" s="3">
-        <v>1.6067033413774801E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0.57768924302788793</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1.6073054976724448E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B85" s="3">
-        <v>0.5557768924302785</v>
-      </c>
-      <c r="C85" s="3">
-        <v>1.6055116228973002E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86" s="3">
-        <v>0.56459874786567965</v>
-      </c>
-      <c r="C86" s="3">
-        <v>1.6065827609562242E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" s="3">
-        <v>0.52390438247011906</v>
-      </c>
-      <c r="C87" s="3">
-        <v>1.6111864921524048E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" s="3">
-        <v>0.58167330677290796</v>
-      </c>
-      <c r="C88" s="3">
-        <v>1.60826364325985E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B89" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C89" s="3">
-        <v>1.6069898613338698E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B90" s="3">
-        <v>0.58366533864541803</v>
-      </c>
-      <c r="C90" s="3">
-        <v>1.6007314882305848E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B91" s="3">
-        <v>0.56459874786567965</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1.6071991705940186E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" s="3">
-        <v>0.52191235059760899</v>
-      </c>
-      <c r="C92" s="3">
-        <v>1.610284336781485E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B93" s="3">
-        <v>0.55776892430278802</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1.6082428363731301E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="3">
-        <v>0.58764940239043795</v>
-      </c>
-      <c r="C94" s="3">
-        <v>1.607255880733565E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B95" s="3">
-        <v>0.58764940239043795</v>
-      </c>
-      <c r="C95" s="3">
-        <v>1.6035354613774498E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B96" s="3">
-        <v>0.56402959590210533</v>
-      </c>
-      <c r="C96" s="3">
-        <v>1.6091836814149326E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="3">
-        <v>0.5697211155378481</v>
-      </c>
-      <c r="C97" s="3">
-        <v>1.6077142753176302E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B98" s="3">
-        <v>0.51792828685258896</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1.6169121776197701E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B99" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1.6091264532540749E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="3">
-        <v>0.56772908366533792</v>
-      </c>
-      <c r="C100" s="3">
-        <v>1.6068460675706751E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" s="3">
-        <v>0.56175298804780827</v>
-      </c>
-      <c r="C101" s="3">
-        <v>1.6072050709066012E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B102" s="3">
-        <v>0.54183266932270846</v>
-      </c>
-      <c r="C102" s="3">
-        <v>1.6095280937765098E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="3">
-        <v>0.58565737051792799</v>
-      </c>
-      <c r="C103" s="3">
-        <v>1.5998287879690348E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B104" s="3">
-        <v>0.53386454183266896</v>
-      </c>
-      <c r="C104" s="3">
-        <v>1.61017026912883E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B105" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C105" s="3">
-        <v>1.609055292680665E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B106" s="3">
-        <v>0.5557768924302785</v>
-      </c>
-      <c r="C106" s="3">
-        <v>1.6089255100890799E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B107" s="3">
-        <v>0.56118383608423383</v>
-      </c>
-      <c r="C107" s="3">
-        <v>1.6095608816549499E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B108" s="3">
-        <v>0.563745019920318</v>
-      </c>
-      <c r="C108" s="3">
-        <v>1.607797821578625E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B109" s="3">
-        <v>0.55378486055776799</v>
-      </c>
-      <c r="C109" s="3">
-        <v>1.6100050350596799E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B110" s="3">
-        <v>0.5557768924302785</v>
-      </c>
-      <c r="C110" s="3">
-        <v>1.609456812499355E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B111" s="3">
-        <v>0.56772908366533792</v>
-      </c>
-      <c r="C111" s="3">
-        <v>1.611205934184505E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B112" s="3">
-        <v>0.556883576803895</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1.6057411025212579E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B113" s="3">
-        <v>0.5697211155378481</v>
-      </c>
-      <c r="C113" s="3">
-        <v>1.60262629694225E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="3">
-        <v>0.547808764940239</v>
-      </c>
-      <c r="C114" s="3">
-        <v>1.604181125397075E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B115" s="3">
-        <v>0.55378486055776799</v>
-      </c>
-      <c r="C115" s="3">
-        <v>1.6055976084201999E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B116" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C116" s="3">
-        <v>1.6080396616941849E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B117" s="3">
-        <v>0.53784860557768854</v>
-      </c>
-      <c r="C117" s="3">
-        <v>1.6081890731020503E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B118" s="3">
-        <v>0.55644090305444849</v>
-      </c>
-      <c r="C118" s="3">
-        <v>1.6076222627929085E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B119" s="3">
-        <v>0.52988047808764904</v>
-      </c>
-      <c r="C119" s="3">
-        <v>1.6096856360846099E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B120" s="3">
-        <v>0.52589641434262901</v>
-      </c>
-      <c r="C120" s="3">
-        <v>1.6077035265115752E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B121" s="3">
-        <v>0.58167330677290796</v>
-      </c>
-      <c r="C121" s="3">
-        <v>1.6084522765625098E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B122" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C122" s="3">
-        <v>1.6083017131953248E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B123" s="3">
-        <v>0.58366533864541803</v>
-      </c>
-      <c r="C123" s="3">
-        <v>1.6043831684953248E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" s="3">
-        <v>0.55599822930500187</v>
-      </c>
-      <c r="C124" s="3">
-        <v>1.6092989358382891E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B125" s="3">
-        <v>0.53386454183266907</v>
-      </c>
-      <c r="C125" s="3">
-        <v>1.609604672061915E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B126" s="3">
-        <v>0.57171314741035806</v>
-      </c>
-      <c r="C126" s="3">
-        <v>1.6093817110801947E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B127" s="3">
-        <v>0.54980079681274896</v>
-      </c>
-      <c r="C127" s="3">
-        <v>1.6093613184615201E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B128" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C128" s="3">
-        <v>1.609005478969015E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B129" s="3">
-        <v>0.54780876494023856</v>
-      </c>
-      <c r="C129" s="3">
-        <v>1.6091726899304149E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B130" s="3">
-        <v>0.55555555555555514</v>
-      </c>
-      <c r="C130" s="3">
-        <v>1.6067577697639487E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B131" s="3">
-        <v>0.53386454183266907</v>
-      </c>
-      <c r="C131" s="3">
-        <v>1.60992257258246E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B132" s="3">
-        <v>0.52390438247011906</v>
-      </c>
-      <c r="C132" s="3">
-        <v>1.6076322443808751E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B133" s="3">
-        <v>0.58167330677290796</v>
-      </c>
-      <c r="C133" s="3">
-        <v>1.6084627259142E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B134" s="3">
-        <v>0.57569721115537797</v>
-      </c>
-      <c r="C134" s="3">
-        <v>1.6078994403387451E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B135" s="3">
-        <v>0.57569721115537797</v>
-      </c>
-      <c r="C135" s="3">
-        <v>1.60072434367859E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B136" s="3">
-        <v>0.55467020805666178</v>
-      </c>
-      <c r="C136" s="3">
-        <v>1.6053843478262834E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B137" s="3">
-        <v>0.5557768924302785</v>
-      </c>
-      <c r="C137" s="3">
-        <v>1.6033188276222951E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B138" s="3">
-        <v>0.54980079681274852</v>
-      </c>
-      <c r="C138" s="3">
-        <v>1.6027403583430098E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" s="3">
-        <v>0.52589641434262901</v>
-      </c>
-      <c r="C139" s="3">
-        <v>1.6147072025207401E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B140" s="3">
-        <v>0.57768924302788793</v>
-      </c>
-      <c r="C140" s="3">
-        <v>1.6049234261830497E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B141" s="3">
-        <v>0.54980079681274852</v>
-      </c>
-      <c r="C141" s="3">
-        <v>1.6058933518095501E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B142" s="3">
-        <v>0.55422753430721527</v>
-      </c>
-      <c r="C142" s="3">
-        <v>1.6087778537137817E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B143" s="3">
-        <v>0.54581673306772904</v>
-      </c>
-      <c r="C143" s="3">
-        <v>1.60910640688628E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B144" s="3">
-        <v>0.53784860557768899</v>
-      </c>
-      <c r="C144" s="3">
-        <v>1.6085921255735849E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C145" s="3">
-        <v>1.60907719780146E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B146" s="3">
-        <v>0.56573705179282796</v>
-      </c>
-      <c r="C146" s="3">
-        <v>1.6087405576314051E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B147" s="3">
-        <v>0.55776892430278846</v>
-      </c>
-      <c r="C147" s="3">
-        <v>1.6085226527200201E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B148" s="3">
-        <v>0.55245683930942868</v>
-      </c>
-      <c r="C148" s="3">
-        <v>1.6094219713046903E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B149" s="3">
-        <v>0.5079681274900395</v>
-      </c>
-      <c r="C149" s="3">
-        <v>1.6113531330233501E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B150" s="3">
-        <v>0.57569721115537797</v>
-      </c>
-      <c r="C150" s="3">
-        <v>1.608669230090385E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C151" s="3">
-        <v>1.6078850702892701E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B152" s="3">
-        <v>0.55776892430278857</v>
-      </c>
-      <c r="C152" s="3">
-        <v>1.6085747610633652E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B153" s="3">
-        <v>0.55776892430278846</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1.60985921154937E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B154" s="3">
-        <v>0.55112881806108838</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1.6101598254416552E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B155" s="3">
-        <v>0.55976095617529797</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1.6105148647277849E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B156" s="3">
-        <v>0.5398406374501985</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1.61132772636031E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B157" s="3">
-        <v>0.50996015936254901</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1.6195080339553102E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B158" s="3">
-        <v>0.55776892430278857</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1.6087518321911201E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B159" s="3">
-        <v>0.56772908366533803</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1.6053707742305801E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B160" s="3">
-        <v>0.55024347056219514</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1.6093751136917203E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B161" s="3">
-        <v>0.5398406374501985</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1.609990100872365E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B162" s="3">
-        <v>0.54980079681274852</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1.6093465102727002E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B163" s="3">
-        <v>0.54980079681274896</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1.6101651163622201E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B164" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1.60842966566489E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B165" s="3">
-        <v>0.53386454183266852</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1.6093391766216748E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B166" s="3">
-        <v>0.54980079681274852</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1.6072231382885226E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167" s="3">
-        <v>0.49601593625497953</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1.6155141502474553E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B168" s="3">
-        <v>0.55776892430278802</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1.61156738474998E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B169" s="3">
-        <v>0.52988047808764904</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1.6024490349866801E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B170" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1.603805585343895E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B171" s="3">
-        <v>0.58167330677290807</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1.6025646076944101E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B172" s="3">
-        <v>0.5493581230633019</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1.6090577857577368E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B173" s="3">
-        <v>0.53784860557768899</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1.60851975608165E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B174" s="3">
-        <v>0.56573705179282796</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1.6095472065947899E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B175" s="3">
-        <v>0.50996015936254901</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1.6093790685977001E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B176" s="3">
-        <v>0.57569721115537797</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1.6082439491681248E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B177" s="3">
-        <v>0.53784860557768899</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1.6097595897664001E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B178" s="3">
-        <v>0.54780876494023878</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1.605923597376039E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B179" s="3">
-        <v>0.56175298804780849</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1.6047271884889552E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B180" s="3">
-        <v>0.56042496679946829</v>
-      </c>
-      <c r="C180" s="3">
-        <v>1.6035421318136164E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B181" s="3">
-        <v>0.54980079681274896</v>
-      </c>
-      <c r="C181" s="3">
-        <v>1.6045378353450698E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B182" s="3">
-        <v>0.54581673306772904</v>
-      </c>
-      <c r="C182" s="3">
-        <v>1.6082411617041149E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B183" s="3">
-        <v>0.515936254980079</v>
-      </c>
-      <c r="C183" s="3">
-        <v>1.6090675212941649E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B184" s="3">
-        <v>0.54780876494023867</v>
-      </c>
-      <c r="C184" s="3">
-        <v>1.6075511363582682E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B185" s="3">
-        <v>0.49800796812748949</v>
-      </c>
-      <c r="C185" s="3">
-        <v>1.6078844410837602E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B186" s="3">
-        <v>0.5511288180610886</v>
-      </c>
-      <c r="C186" s="3">
-        <v>1.6070448252804601E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B187" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C187" s="3">
-        <v>1.60963166500088E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B188" s="3">
-        <v>0.56175298804780849</v>
-      </c>
-      <c r="C188" s="3">
-        <v>1.6099370908975501E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B189" s="3">
-        <v>0.563745019920318</v>
-      </c>
-      <c r="C189" s="3">
-        <v>1.6045510793888999E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B190" s="3">
-        <v>0.54752418895845145</v>
-      </c>
-      <c r="C190" s="3">
-        <v>1.6088164985171828E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B191" s="3">
-        <v>0.5079681274900395</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1.609739077909705E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B192" s="3">
-        <v>0.55776892430278802</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1.6079925131468099E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B193" s="3">
-        <v>0.579681274900398</v>
-      </c>
-      <c r="C193" s="3">
-        <v>1.6079278782465151E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B194" s="3">
-        <v>0.54980079681274852</v>
-      </c>
-      <c r="C194" s="3">
-        <v>1.609194532080515E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B195" s="3">
-        <v>0.54714475431606857</v>
-      </c>
-      <c r="C195" s="3">
-        <v>1.609071159855981E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B196" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C196" s="3">
-        <v>1.6075671555498099E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B197" s="3">
-        <v>0.53585657370517903</v>
-      </c>
-      <c r="C197" s="3">
-        <v>1.6091905023023947E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B198" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C198" s="3">
-        <v>1.60902174887834E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B199" s="3">
-        <v>0.51792828685258896</v>
-      </c>
-      <c r="C199" s="3">
-        <v>1.61021110113517E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B200" s="3">
-        <v>0.54581673306772849</v>
-      </c>
-      <c r="C200" s="3">
-        <v>1.6093405859253701E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B201" s="3">
-        <v>0.5463858850313027</v>
-      </c>
-      <c r="C201" s="3">
-        <v>1.6096590926926998E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B202" s="3">
-        <v>0.52589641434262901</v>
-      </c>
-      <c r="C202" s="3">
-        <v>1.6101081007859598E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B203" s="3">
-        <v>0.55378486055776799</v>
-      </c>
-      <c r="C203" s="3">
-        <v>1.60931846754487E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B204" s="3">
-        <v>0.54980079681274852</v>
-      </c>
-      <c r="C204" s="3">
-        <v>1.6097203245627301E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B205" s="3">
-        <v>0.55976095617529797</v>
-      </c>
-      <c r="C205" s="3">
-        <v>1.6093191653033252E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B206" s="3">
-        <v>0.54537405931828209</v>
-      </c>
-      <c r="C206" s="3">
-        <v>1.6105142465521912E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B207" s="3">
-        <v>0.57569721115537797</v>
-      </c>
-      <c r="C207" s="3">
-        <v>1.6055128336710252E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B208" s="3">
-        <v>0.52589641434262946</v>
-      </c>
-      <c r="C208" s="3">
-        <v>1.6144473051611048E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B209" s="3">
-        <v>0.53386454183266896</v>
-      </c>
-      <c r="C209" s="3">
-        <v>1.6102096026333002E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B210" s="3">
-        <v>0.531872509960159</v>
-      </c>
-      <c r="C210" s="3">
-        <v>1.6113095125506349E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B211" s="3">
-        <v>0.55378486055776843</v>
-      </c>
-      <c r="C211" s="3">
-        <v>1.6109396567854449E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B212" s="3">
-        <v>0.54537405931828209</v>
-      </c>
-      <c r="C212" s="3">
-        <v>1.6084470181965023E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B213" s="3">
-        <v>0.4920318725099595</v>
-      </c>
-      <c r="C213" s="3">
-        <v>1.6147216803884902E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B214" s="3">
-        <v>0.54382470119521908</v>
-      </c>
-      <c r="C214" s="3">
-        <v>1.6085352147418901E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B215" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C215" s="3">
-        <v>1.6077320694729801E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B216" s="3">
-        <v>0.55378486055776854</v>
-      </c>
-      <c r="C216" s="3">
-        <v>1.6079415715842749E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B217" s="3">
-        <v>0.57768924302788793</v>
-      </c>
-      <c r="C217" s="3">
-        <v>1.6029470804331151E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B218" s="3">
-        <v>0.54537405931828198</v>
-      </c>
-      <c r="C218" s="3">
-        <v>1.6114433617860312E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B219" s="3">
-        <v>0.58167330677290807</v>
-      </c>
-      <c r="C219" s="3">
-        <v>1.603542342416215E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B220" s="3">
-        <v>0.54780876494023856</v>
-      </c>
-      <c r="C220" s="3">
-        <v>1.6131133446067147E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B221" s="3">
-        <v>0.56573705179282796</v>
-      </c>
-      <c r="C221" s="3">
-        <v>1.5980290189574399E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B222" s="3">
-        <v>0.52788844621513897</v>
-      </c>
-      <c r="C222" s="3">
-        <v>1.61132376379499E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B223" s="3">
-        <v>0.51394422310756949</v>
-      </c>
-      <c r="C223" s="3">
-        <v>1.6245011677405E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B224" s="3">
-        <v>0.542401821286283</v>
-      </c>
-      <c r="C224" s="3">
-        <v>1.6091895393679456E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B225" s="3">
-        <v>0.5398406374501985</v>
-      </c>
-      <c r="C225" s="3">
-        <v>1.6170515959477549E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B226" s="3">
-        <v>0.51792828685258896</v>
-      </c>
-      <c r="C226" s="3">
-        <v>1.6087795750273401E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B227" s="3">
-        <v>0.5418326693227089</v>
-      </c>
-      <c r="C227" s="3">
-        <v>1.6049952489256898E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B228" s="3">
-        <v>0.55776892430278857</v>
-      </c>
-      <c r="C228" s="3">
-        <v>1.6057267554006951E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B229" s="3">
-        <v>0.53904382470119461</v>
-      </c>
-      <c r="C229" s="3">
-        <v>1.6096124673246719E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B230" s="3">
-        <v>0.53784860557768899</v>
-      </c>
-      <c r="C230" s="3">
-        <v>1.6101780743125751E-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B231" s="3">
-        <v>0.55511288180610796</v>
-      </c>
-      <c r="C231" s="3">
-        <v>1.6089940805919436E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B232" s="3">
-        <v>0.56573705179282796</v>
-      </c>
-      <c r="C232" s="3">
-        <v>1.60866665659526E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B233" s="3">
-        <v>0.50398406374501947</v>
-      </c>
-      <c r="C233" s="3">
-        <v>1.6102877007946548E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B234" s="3">
-        <v>0.53784860557768899</v>
-      </c>
-      <c r="C234" s="3">
-        <v>1.6097721123305851E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B235" s="3">
-        <v>0.5351925630810086</v>
-      </c>
-      <c r="C235" s="3">
-        <v>1.6228520205237011E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B236" s="3">
-        <v>0.54183266932270846</v>
-      </c>
-      <c r="C236" s="3">
-        <v>1.6050484522191301E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B237" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C237" s="3">
-        <v>1.621095383187815E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B238" s="3">
-        <v>0.52191235059760899</v>
-      </c>
-      <c r="C238" s="3">
-        <v>1.6138235578285198E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B239" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C239" s="3">
-        <v>1.6081430696016003E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B240" s="3">
-        <v>0.45418326693227001</v>
-      </c>
-      <c r="C240" s="3">
-        <v>1.6616354084338501E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B241" s="3">
-        <v>0.53342186808322234</v>
-      </c>
-      <c r="C241" s="3">
-        <v>1.6152337479351395E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B242" s="3">
-        <v>0.43227091633466097</v>
-      </c>
-      <c r="C242" s="3">
-        <v>1.6213217115684301E-2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B243" s="3">
-        <v>0.54183266932270902</v>
-      </c>
-      <c r="C243" s="3">
-        <v>1.6197009706657949E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B244" s="3">
-        <v>0.56573705179282796</v>
-      </c>
-      <c r="C244" s="3">
-        <v>1.60838353345088E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B245" s="3">
-        <v>0.58366533864541803</v>
-      </c>
-      <c r="C245" s="3">
-        <v>1.6061767161497202E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B246" s="3">
-        <v>0.55976095617529809</v>
-      </c>
-      <c r="C246" s="3">
-        <v>1.6171607005987451E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B247" s="3">
-        <v>0.52988047808764893</v>
-      </c>
-      <c r="C247" s="3">
-        <v>1.6168896935288234E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B248" s="3">
-        <v>0.53386454183266907</v>
-      </c>
-      <c r="C248" s="3">
-        <v>1.61954928298019E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B249" s="3">
-        <v>0.56972111553784799</v>
-      </c>
-      <c r="C249" s="3">
-        <v>1.6187891075553299E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B250" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C250" s="3">
-        <v>1.6181683438232598E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B251" s="3">
-        <v>0.49601593625497953</v>
-      </c>
-      <c r="C251" s="3">
-        <v>1.6090586845409351E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B252" s="3">
-        <v>0.49601593625497953</v>
-      </c>
-      <c r="C252" s="3">
-        <v>1.6195223738916201E-2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B253" s="3">
-        <v>0.52874217416050018</v>
-      </c>
-      <c r="C253" s="3">
-        <v>1.6147118729419443E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B254" s="3">
-        <v>0.5697211155378481</v>
-      </c>
-      <c r="C254" s="3">
-        <v>1.6083999166393803E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B255" s="3">
-        <v>0.55378486055776799</v>
-      </c>
-      <c r="C255" s="3">
-        <v>1.6176971154508401E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B256" s="3">
-        <v>0.51992031872509903</v>
-      </c>
-      <c r="C256" s="3">
-        <v>1.6097554869248451E-2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B257" s="3">
-        <v>0.48406374501991956</v>
-      </c>
-      <c r="C257" s="3">
-        <v>1.6244875940071599E-2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B258" s="3">
-        <v>0.52855245683930896</v>
-      </c>
-      <c r="C258" s="3">
-        <v>1.6118919649205192E-2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B259" s="3">
-        <v>0.50199203187250951</v>
-      </c>
-      <c r="C259" s="3">
-        <v>1.6157813895897301E-2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B260" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C260" s="3">
-        <v>1.6093712629986948E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B261" s="3">
-        <v>0.60159362549800799</v>
-      </c>
-      <c r="C261" s="3">
-        <v>1.6096202822449598E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B262" s="3">
-        <v>0.49402390438246951</v>
-      </c>
-      <c r="C262" s="3">
-        <v>1.6109595834748497E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B263" s="3">
-        <v>0.50398406374501947</v>
-      </c>
-      <c r="C263" s="3">
-        <v>1.6125914649565802E-2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B264" s="3">
-        <v>0.52248150256118342</v>
-      </c>
-      <c r="C264" s="3">
-        <v>1.6118737584682203E-2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B265" s="3">
-        <v>0.48007968127489997</v>
-      </c>
-      <c r="C265" s="3">
-        <v>1.6163966947952801E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B266" s="3">
-        <v>0.55378486055776799</v>
-      </c>
-      <c r="C266" s="3">
-        <v>1.6098693737163699E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B267" s="3">
-        <v>0.53784860557768899</v>
-      </c>
-      <c r="C267" s="3">
-        <v>1.6103107550291099E-2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B268" s="3">
-        <v>0.53386454183266907</v>
-      </c>
-      <c r="C268" s="3">
-        <v>1.609916017956195E-2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B269" s="3">
-        <v>0.52058432934926913</v>
-      </c>
-      <c r="C269" s="3">
-        <v>1.6112144590097001E-2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B270" s="3">
-        <v>0.54183266932270846</v>
-      </c>
-      <c r="C270" s="3">
-        <v>1.608987712787445E-2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B271" s="3">
-        <v>0.52988047808764904</v>
-      </c>
-      <c r="C271" s="3">
-        <v>1.6100841129424698E-2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B272" s="3">
-        <v>0.52988047808764904</v>
-      </c>
-      <c r="C272" s="3">
-        <v>1.61028164151584E-2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B273" s="3">
-        <v>0.58167330677290807</v>
-      </c>
-      <c r="C273" s="3">
-        <v>1.6062162761193148E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B274" s="3">
-        <v>0.42430278884462103</v>
-      </c>
-      <c r="C274" s="3">
-        <v>1.6200361429364998E-2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B275" s="3">
-        <v>0.52058432934926901</v>
-      </c>
-      <c r="C275" s="3">
-        <v>1.6104017680109897E-2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B276" s="3">
-        <v>0.52589641434262901</v>
-      </c>
-      <c r="C276" s="3">
-        <v>1.6112813871019052E-2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B277" s="3">
-        <v>0.51394422310756904</v>
-      </c>
-      <c r="C277" s="3">
-        <v>1.61026242234454E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B278" s="3">
-        <v>0.55776892430278802</v>
-      </c>
-      <c r="C278" s="3">
-        <v>1.6095874271783502E-2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B279" s="3">
-        <v>0.55776892430278857</v>
-      </c>
-      <c r="C279" s="3">
-        <v>1.6079023862142001E-2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B280" s="3">
-        <v>0.46613545816733004</v>
-      </c>
-      <c r="C280" s="3">
-        <v>1.612568046799635E-2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B281" s="3">
-        <v>0.51881363435148253</v>
-      </c>
-      <c r="C281" s="3">
-        <v>1.6226073112659889E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B282" s="3">
-        <v>0.57370517928286802</v>
-      </c>
-      <c r="C282" s="3">
-        <v>1.6030890646104898E-2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B283" s="3">
-        <v>0.50996015936254901</v>
-      </c>
-      <c r="C283" s="3">
-        <v>1.6180463734974351E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B284" s="3">
-        <v>0.50199203187250996</v>
-      </c>
-      <c r="C284" s="3">
-        <v>1.63020961327572E-2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B285" s="3">
-        <v>0.53585657370517903</v>
-      </c>
-      <c r="C285" s="3">
-        <v>1.61018198988718E-2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B286" s="3">
-        <v>0.46414342629481997</v>
-      </c>
-      <c r="C286" s="3">
-        <v>1.655310666063985E-2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B287" s="3">
-        <v>0.51748561310314256</v>
-      </c>
-      <c r="C287" s="3">
-        <v>1.6157300914960666E-2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B288" s="3">
-        <v>0.44820717131474053</v>
-      </c>
-      <c r="C288" s="3">
-        <v>1.6240770286202352E-2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B289" s="3">
-        <v>0.52390438247011906</v>
-      </c>
-      <c r="C289" s="3">
-        <v>1.6164770738549002E-2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B290" s="3">
-        <v>0.48605577689243001</v>
-      </c>
-      <c r="C290" s="3">
-        <v>1.6253385233909502E-2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B291" s="3">
-        <v>0.55179282868525847</v>
-      </c>
-      <c r="C291" s="3">
-        <v>1.6101717222325652E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B292" s="3">
-        <v>0.56175298804780804</v>
-      </c>
-      <c r="C292" s="3">
-        <v>1.607390325329125E-2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B293" s="3">
-        <v>0.51527224435590913</v>
-      </c>
-      <c r="C293" s="3">
-        <v>1.635800481356129E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B294" s="3">
-        <v>0.50398406374501947</v>
-      </c>
-      <c r="C294" s="3">
-        <v>1.6120833250944648E-2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B295" s="3">
-        <v>0.52191235059760899</v>
-      </c>
-      <c r="C295" s="3">
-        <v>1.66310383660472E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B296" s="3">
-        <v>0.56573705179282796</v>
-      </c>
-      <c r="C296" s="3">
-        <v>1.6451996347541801E-2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B297" s="3">
-        <v>0.57768924302788804</v>
-      </c>
-      <c r="C297" s="3">
-        <v>1.60780963177799E-2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B298" s="3">
-        <v>0.43227091633466097</v>
-      </c>
-      <c r="C298" s="3">
-        <v>1.6555055552483149E-2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B299" s="3">
-        <v>0.51115537848605541</v>
-      </c>
-      <c r="C299" s="3">
-        <v>1.6227215906219679E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B300" s="3">
-        <v>0.54382470119521897</v>
-      </c>
-      <c r="C300" s="3">
-        <v>1.6041509263869602E-2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B301" s="3">
-        <v>0.47675962815405004</v>
-      </c>
-      <c r="C301" s="3">
-        <v>1.6455155169972733E-2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B302" s="3">
-        <v>0.48605577689243001</v>
-      </c>
-      <c r="C302" s="3">
-        <v>1.6268398939627501E-2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B303" s="3">
-        <v>0.52788844621513897</v>
-      </c>
-      <c r="C303" s="3">
-        <v>1.6113693667895598E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B304" s="3">
-        <v>0.52589641434262901</v>
-      </c>
-      <c r="C304" s="3">
-        <v>1.6163944374560351E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B305" s="3">
-        <v>0.55071951661204355</v>
-      </c>
-      <c r="C305" s="3">
-        <v>1.6102513592563861E-2</v>
+        <v>1.6092138604340975E-2</v>
       </c>
     </row>
   </sheetData>
@@ -87785,11 +83908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CZ764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CH8" sqref="CH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -128548,7 +124671,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CZ296">
+  <autoFilter ref="A1:CZ296" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CZ296">
       <sortCondition ref="B1"/>
     </sortState>
